--- a/Assets/Spreadsheets/Monsters.xlsx
+++ b/Assets/Spreadsheets/Monsters.xlsx
@@ -25,136 +25,136 @@
     <t>Image</t>
   </si>
   <si>
-    <t>해골 약탈자</t>
-  </si>
-  <si>
-    <t>서리 망령</t>
-  </si>
-  <si>
-    <t>고블린 약탈자</t>
-  </si>
-  <si>
-    <t>무쇠송곳니 늑대</t>
-  </si>
-  <si>
-    <t>역병 쥐</t>
-  </si>
-  <si>
-    <t>저주받은 기사</t>
-  </si>
-  <si>
-    <t>핏니 박쥐</t>
-  </si>
-  <si>
-    <t>사악한 드라이어드</t>
-  </si>
-  <si>
-    <t>늪지 마녀</t>
-  </si>
-  <si>
-    <t>파멸의 켄타우로스</t>
-  </si>
-  <si>
-    <t>유령 궁수</t>
-  </si>
-  <si>
-    <t>야성의 하피</t>
-  </si>
-  <si>
-    <t>용암 거수</t>
-  </si>
-  <si>
-    <t>망령 사냥개</t>
-  </si>
-  <si>
-    <t>오염된 멧돼지</t>
-  </si>
-  <si>
-    <t>고대 만티코어</t>
-  </si>
-  <si>
-    <t>공포의 뱀</t>
-  </si>
-  <si>
-    <t>썩어가는 구울</t>
-  </si>
-  <si>
-    <t>사악한 가고일</t>
-  </si>
-  <si>
-    <t>지옥의 자식</t>
-  </si>
-  <si>
-    <t>황혼의 그림자</t>
-  </si>
-  <si>
-    <t>이끼등 트롤</t>
-  </si>
-  <si>
-    <t>핏빛 임프</t>
-  </si>
-  <si>
-    <t>광폭한 독수리</t>
-  </si>
-  <si>
-    <t>고대 트렌트</t>
-  </si>
-  <si>
-    <t>돌 골렘</t>
-  </si>
-  <si>
-    <t>맹독 과부거미</t>
-  </si>
-  <si>
-    <t>탐식의 드레이크</t>
-  </si>
-  <si>
-    <t>어둠의 사제</t>
-  </si>
-  <si>
-    <t>잿불 악귀</t>
-  </si>
-  <si>
-    <t>영혼 흡수자</t>
-  </si>
-  <si>
-    <t>망령 기사</t>
-  </si>
-  <si>
-    <t>죽음의 수호자</t>
-  </si>
-  <si>
-    <t>무쇠가죽 오우거</t>
-  </si>
-  <si>
-    <t>서리비늘 도마뱀</t>
-  </si>
-  <si>
-    <t>그림자 추적자</t>
-  </si>
-  <si>
-    <t>황혼 망령</t>
-  </si>
-  <si>
-    <t>저주받은 위습</t>
-  </si>
-  <si>
-    <t>맹독 뱀</t>
-  </si>
-  <si>
-    <t>주술사의 사역마</t>
-  </si>
-  <si>
-    <t>잿빛 거인</t>
-  </si>
-  <si>
-    <t>비명 여왕</t>
-  </si>
-  <si>
-    <t>해골 수집가</t>
-  </si>
-  <si>
-    <t>송장 까마귀</t>
+    <t>Lava Drake</t>
+  </si>
+  <si>
+    <t>Frost Warden</t>
+  </si>
+  <si>
+    <t>Toxic Maw</t>
+  </si>
+  <si>
+    <t>Crystal Mite</t>
+  </si>
+  <si>
+    <t>Ash Basilisk</t>
+  </si>
+  <si>
+    <t>Storm Howler</t>
+  </si>
+  <si>
+    <t>Sand Strider</t>
+  </si>
+  <si>
+    <t>Mire Lurker</t>
+  </si>
+  <si>
+    <t>Grove Guardian</t>
+  </si>
+  <si>
+    <t>Abyss Watcher</t>
+  </si>
+  <si>
+    <t>Sunscale Cobra</t>
+  </si>
+  <si>
+    <t>Runed Behemoth</t>
+  </si>
+  <si>
+    <t>Ember Tortoise</t>
+  </si>
+  <si>
+    <t>Glacier Prowler</t>
+  </si>
+  <si>
+    <t>Blight Gnawer</t>
+  </si>
+  <si>
+    <t>Shardback Beetle</t>
+  </si>
+  <si>
+    <t>Thunderhoof</t>
+  </si>
+  <si>
+    <t>Dune Wyrmling</t>
+  </si>
+  <si>
+    <t>Fen Stalker</t>
+  </si>
+  <si>
+    <t>Verdant Stag</t>
+  </si>
+  <si>
+    <t>Night Lantern</t>
+  </si>
+  <si>
+    <t>Molten Hound</t>
+  </si>
+  <si>
+    <t>Rime Seraph</t>
+  </si>
+  <si>
+    <t>Rotting Baron</t>
+  </si>
+  <si>
+    <t>Quartz Mantis</t>
+  </si>
+  <si>
+    <t>Tempest Ray</t>
+  </si>
+  <si>
+    <t>Silt Crawler</t>
+  </si>
+  <si>
+    <t>Thornbark Boar</t>
+  </si>
+  <si>
+    <t>Gloom Angler</t>
+  </si>
+  <si>
+    <t>Cinder Roc</t>
+  </si>
+  <si>
+    <t>Snowshade Lynx</t>
+  </si>
+  <si>
+    <t>Pestilent Leech</t>
+  </si>
+  <si>
+    <t>Citrine Scarab</t>
+  </si>
+  <si>
+    <t>Volt Viper</t>
+  </si>
+  <si>
+    <t>Oasis Strider</t>
+  </si>
+  <si>
+    <t>Oakheart Bear</t>
+  </si>
+  <si>
+    <t>Trench Songspirit</t>
+  </si>
+  <si>
+    <t>Brazen Jackal</t>
+  </si>
+  <si>
+    <t>Hail Warden</t>
+  </si>
+  <si>
+    <t>Moss Monarch</t>
+  </si>
+  <si>
+    <t>Amethyst Vole</t>
+  </si>
+  <si>
+    <t>Nimbus Drake</t>
+  </si>
+  <si>
+    <t>Glassback Beetle</t>
+  </si>
+  <si>
+    <t>Reedback Croc</t>
   </si>
   <si>
     <t>황천 악마</t>
@@ -375,12 +375,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1106,7 +1109,7 @@
       <c r="A46" s="1">
         <v>45.0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="1">
@@ -1117,7 +1120,7 @@
       <c r="A47" s="1">
         <v>46.0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="1">
@@ -1128,7 +1131,7 @@
       <c r="A48" s="1">
         <v>47.0</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="1">
@@ -1139,7 +1142,7 @@
       <c r="A49" s="1">
         <v>48.0</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="1">
@@ -1150,7 +1153,7 @@
       <c r="A50" s="1">
         <v>49.0</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="1">
@@ -1161,7 +1164,7 @@
       <c r="A51" s="1">
         <v>50.0</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="1">
@@ -1172,7 +1175,7 @@
       <c r="A52" s="1">
         <v>51.0</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="1">
@@ -1183,7 +1186,7 @@
       <c r="A53" s="1">
         <v>52.0</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="1">
@@ -1194,7 +1197,7 @@
       <c r="A54" s="1">
         <v>53.0</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="1">
@@ -1205,7 +1208,7 @@
       <c r="A55" s="1">
         <v>54.0</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="1">
@@ -1216,7 +1219,7 @@
       <c r="A56" s="1">
         <v>55.0</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="1">
@@ -1227,7 +1230,7 @@
       <c r="A57" s="1">
         <v>56.0</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C57" s="1">
@@ -1238,7 +1241,7 @@
       <c r="A58" s="1">
         <v>57.0</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="1">
@@ -1249,7 +1252,7 @@
       <c r="A59" s="1">
         <v>58.0</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="1">
@@ -1260,7 +1263,7 @@
       <c r="A60" s="1">
         <v>59.0</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="1">
@@ -1271,7 +1274,7 @@
       <c r="A61" s="1">
         <v>60.0</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="1">
@@ -1282,7 +1285,7 @@
       <c r="A62" s="1">
         <v>61.0</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="1">
@@ -1293,7 +1296,7 @@
       <c r="A63" s="1">
         <v>62.0</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C63" s="1">
@@ -1304,7 +1307,7 @@
       <c r="A64" s="1">
         <v>63.0</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="1">
@@ -1315,7 +1318,7 @@
       <c r="A65" s="1">
         <v>64.0</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="1">
@@ -1326,7 +1329,7 @@
       <c r="A66" s="1">
         <v>65.0</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C66" s="1">
@@ -1337,7 +1340,7 @@
       <c r="A67" s="1">
         <v>66.0</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="1">
@@ -1348,7 +1351,7 @@
       <c r="A68" s="1">
         <v>67.0</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C68" s="1">
@@ -1359,7 +1362,7 @@
       <c r="A69" s="1">
         <v>68.0</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C69" s="1">
@@ -1370,7 +1373,7 @@
       <c r="A70" s="1">
         <v>69.0</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="1">
@@ -1381,7 +1384,7 @@
       <c r="A71" s="1">
         <v>70.0</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="1">
@@ -1392,7 +1395,7 @@
       <c r="A72" s="1">
         <v>71.0</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="1">
@@ -1403,7 +1406,7 @@
       <c r="A73" s="1">
         <v>72.0</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="1">
@@ -1414,7 +1417,7 @@
       <c r="A74" s="1">
         <v>73.0</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="1">
@@ -1425,7 +1428,7 @@
       <c r="A75" s="1">
         <v>74.0</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="1">
@@ -1436,7 +1439,7 @@
       <c r="A76" s="1">
         <v>75.0</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="1">
@@ -1447,7 +1450,7 @@
       <c r="A77" s="1">
         <v>76.0</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="1">
@@ -1458,7 +1461,7 @@
       <c r="A78" s="1">
         <v>77.0</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="1">
@@ -1469,7 +1472,7 @@
       <c r="A79" s="1">
         <v>78.0</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="1">
@@ -1480,7 +1483,7 @@
       <c r="A80" s="1">
         <v>79.0</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="1">
@@ -1491,7 +1494,7 @@
       <c r="A81" s="1">
         <v>80.0</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="1">
@@ -1502,7 +1505,7 @@
       <c r="A82" s="1">
         <v>81.0</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="1">
@@ -1513,7 +1516,7 @@
       <c r="A83" s="1">
         <v>82.0</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="1">
@@ -1524,7 +1527,7 @@
       <c r="A84" s="1">
         <v>83.0</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="1">
@@ -1535,7 +1538,7 @@
       <c r="A85" s="1">
         <v>84.0</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C85" s="1">
@@ -1546,7 +1549,7 @@
       <c r="A86" s="1">
         <v>85.0</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="1">
@@ -1557,7 +1560,7 @@
       <c r="A87" s="1">
         <v>86.0</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="1">
@@ -1568,7 +1571,7 @@
       <c r="A88" s="1">
         <v>87.0</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="1">
@@ -1579,7 +1582,7 @@
       <c r="A89" s="1">
         <v>88.0</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="1">
@@ -1590,7 +1593,7 @@
       <c r="A90" s="1">
         <v>89.0</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="1">
@@ -1601,7 +1604,7 @@
       <c r="A91" s="1">
         <v>90.0</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="1">
@@ -1612,7 +1615,7 @@
       <c r="A92" s="1">
         <v>91.0</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="1">
@@ -1623,7 +1626,7 @@
       <c r="A93" s="1">
         <v>92.0</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="1">
@@ -1634,7 +1637,7 @@
       <c r="A94" s="1">
         <v>93.0</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="1">
@@ -1645,7 +1648,7 @@
       <c r="A95" s="1">
         <v>94.0</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="1">
@@ -1656,7 +1659,7 @@
       <c r="A96" s="1">
         <v>95.0</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="1">
@@ -1667,7 +1670,7 @@
       <c r="A97" s="1">
         <v>96.0</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="1">
@@ -1678,7 +1681,7 @@
       <c r="A98" s="1">
         <v>97.0</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C98" s="1">
@@ -1689,7 +1692,7 @@
       <c r="A99" s="1">
         <v>98.0</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="1">
@@ -1700,7 +1703,7 @@
       <c r="A100" s="1">
         <v>99.0</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="1">
@@ -1711,7 +1714,7 @@
       <c r="A101" s="1">
         <v>100.0</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C101" s="1">
@@ -1722,7 +1725,7 @@
       <c r="A102" s="1">
         <v>101.0</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C102" s="1">
@@ -1733,7 +1736,7 @@
       <c r="A103" s="1">
         <v>102.0</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="1">
@@ -1744,7 +1747,7 @@
       <c r="A104" s="1">
         <v>103.0</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C104" s="1">
@@ -1755,7 +1758,7 @@
       <c r="A105" s="1">
         <v>104.0</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C105" s="1">
@@ -1766,7 +1769,7 @@
       <c r="A106" s="1">
         <v>105.0</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="1">

--- a/Assets/Spreadsheets/Monsters.xlsx
+++ b/Assets/Spreadsheets/Monsters.xlsx
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -384,6 +384,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -628,8 +631,8 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>10.0</v>
+      <c r="C2" s="3">
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
@@ -639,8 +642,8 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>10.0</v>
+      <c r="C3" s="3">
+        <v>66.0</v>
       </c>
     </row>
     <row r="4">
@@ -650,8 +653,8 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>10.0</v>
+      <c r="C4" s="3">
+        <v>72.0</v>
       </c>
     </row>
     <row r="5">
@@ -661,8 +664,8 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>10.0</v>
+      <c r="C5" s="3">
+        <v>72.0</v>
       </c>
     </row>
     <row r="6">
@@ -672,8 +675,8 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>10.0</v>
+      <c r="C6" s="3">
+        <v>78.0</v>
       </c>
     </row>
     <row r="7">
@@ -683,8 +686,8 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>10.0</v>
+      <c r="C7" s="3">
+        <v>78.0</v>
       </c>
     </row>
     <row r="8">
@@ -694,8 +697,8 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>10.0</v>
+      <c r="C8" s="3">
+        <v>84.0</v>
       </c>
     </row>
     <row r="9">
@@ -705,8 +708,8 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>10.0</v>
+      <c r="C9" s="3">
+        <v>90.0</v>
       </c>
     </row>
     <row r="10">
@@ -716,8 +719,8 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>10.0</v>
+      <c r="C10" s="3">
+        <v>90.0</v>
       </c>
     </row>
     <row r="11">
@@ -727,8 +730,8 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>50.0</v>
+      <c r="C11" s="3">
+        <v>193.0</v>
       </c>
     </row>
     <row r="12">
@@ -738,8 +741,8 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <v>10.0</v>
+      <c r="C12" s="3">
+        <v>103.0</v>
       </c>
     </row>
     <row r="13">
@@ -749,8 +752,8 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
-        <v>10.0</v>
+      <c r="C13" s="3">
+        <v>109.0</v>
       </c>
     </row>
     <row r="14">
@@ -760,8 +763,8 @@
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
-        <v>10.0</v>
+      <c r="C14" s="3">
+        <v>109.0</v>
       </c>
     </row>
     <row r="15">
@@ -771,8 +774,8 @@
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
-        <v>10.0</v>
+      <c r="C15" s="3">
+        <v>115.0</v>
       </c>
     </row>
     <row r="16">
@@ -782,8 +785,8 @@
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
-        <v>10.0</v>
+      <c r="C16" s="3">
+        <v>121.0</v>
       </c>
     </row>
     <row r="17">
@@ -793,8 +796,8 @@
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
-        <v>10.0</v>
+      <c r="C17" s="3">
+        <v>127.0</v>
       </c>
     </row>
     <row r="18">
@@ -804,8 +807,8 @@
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
-        <v>10.0</v>
+      <c r="C18" s="3">
+        <v>133.0</v>
       </c>
     </row>
     <row r="19">
@@ -815,8 +818,8 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
-        <v>10.0</v>
+      <c r="C19" s="3">
+        <v>139.0</v>
       </c>
     </row>
     <row r="20">
@@ -826,8 +829,8 @@
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1">
-        <v>10.0</v>
+      <c r="C20" s="3">
+        <v>151.0</v>
       </c>
     </row>
     <row r="21">
@@ -837,8 +840,8 @@
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1">
-        <v>50.0</v>
+      <c r="C21" s="3">
+        <v>315.0</v>
       </c>
     </row>
     <row r="22">
@@ -848,8 +851,8 @@
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1">
-        <v>10.0</v>
+      <c r="C22" s="3">
+        <v>163.0</v>
       </c>
     </row>
     <row r="23">
@@ -859,8 +862,8 @@
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
-        <v>10.0</v>
+      <c r="C23" s="3">
+        <v>169.0</v>
       </c>
     </row>
     <row r="24">
@@ -870,8 +873,8 @@
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
-        <v>10.0</v>
+      <c r="C24" s="3">
+        <v>181.0</v>
       </c>
     </row>
     <row r="25">
@@ -881,8 +884,8 @@
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
-        <v>10.0</v>
+      <c r="C25" s="3">
+        <v>187.0</v>
       </c>
     </row>
     <row r="26">
@@ -892,8 +895,8 @@
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1">
-        <v>10.0</v>
+      <c r="C26" s="3">
+        <v>199.0</v>
       </c>
     </row>
     <row r="27">
@@ -903,8 +906,8 @@
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1">
-        <v>10.0</v>
+      <c r="C27" s="3">
+        <v>206.0</v>
       </c>
     </row>
     <row r="28">
@@ -914,8 +917,8 @@
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1">
-        <v>10.0</v>
+      <c r="C28" s="3">
+        <v>218.0</v>
       </c>
     </row>
     <row r="29">
@@ -925,8 +928,8 @@
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1">
-        <v>10.0</v>
+      <c r="C29" s="3">
+        <v>230.0</v>
       </c>
     </row>
     <row r="30">
@@ -936,8 +939,8 @@
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1">
-        <v>10.0</v>
+      <c r="C30" s="3">
+        <v>242.0</v>
       </c>
     </row>
     <row r="31">
@@ -947,8 +950,8 @@
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1">
-        <v>50.0</v>
+      <c r="C31" s="3">
+        <v>509.0</v>
       </c>
     </row>
     <row r="32">
@@ -958,8 +961,8 @@
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1">
-        <v>10.0</v>
+      <c r="C32" s="3">
+        <v>266.0</v>
       </c>
     </row>
     <row r="33">
@@ -969,8 +972,8 @@
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1">
-        <v>10.0</v>
+      <c r="C33" s="3">
+        <v>278.0</v>
       </c>
     </row>
     <row r="34">
@@ -980,8 +983,8 @@
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="1">
-        <v>10.0</v>
+      <c r="C34" s="3">
+        <v>290.0</v>
       </c>
     </row>
     <row r="35">
@@ -991,8 +994,8 @@
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1">
-        <v>10.0</v>
+      <c r="C35" s="3">
+        <v>309.0</v>
       </c>
     </row>
     <row r="36">
@@ -1002,8 +1005,8 @@
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="1">
-        <v>10.0</v>
+      <c r="C36" s="3">
+        <v>321.0</v>
       </c>
     </row>
     <row r="37">
@@ -1013,8 +1016,8 @@
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="1">
-        <v>10.0</v>
+      <c r="C37" s="3">
+        <v>339.0</v>
       </c>
     </row>
     <row r="38">
@@ -1024,8 +1027,8 @@
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1">
-        <v>10.0</v>
+      <c r="C38" s="3">
+        <v>351.0</v>
       </c>
     </row>
     <row r="39">
@@ -1035,8 +1038,8 @@
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="1">
-        <v>10.0</v>
+      <c r="C39" s="3">
+        <v>369.0</v>
       </c>
     </row>
     <row r="40">
@@ -1046,8 +1049,8 @@
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="1">
-        <v>10.0</v>
+      <c r="C40" s="3">
+        <v>387.0</v>
       </c>
     </row>
     <row r="41">
@@ -1057,8 +1060,8 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="1">
-        <v>50.0</v>
+      <c r="C41" s="3">
+        <v>824.0</v>
       </c>
     </row>
     <row r="42">
@@ -1068,8 +1071,8 @@
       <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="1">
-        <v>10.0</v>
+      <c r="C42" s="3">
+        <v>430.0</v>
       </c>
     </row>
     <row r="43">
@@ -1079,8 +1082,8 @@
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="1">
-        <v>10.0</v>
+      <c r="C43" s="3">
+        <v>448.0</v>
       </c>
     </row>
     <row r="44">
@@ -1090,8 +1093,8 @@
       <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="1">
-        <v>10.0</v>
+      <c r="C44" s="3">
+        <v>472.0</v>
       </c>
     </row>
     <row r="45">
@@ -1101,679 +1104,679 @@
       <c r="B45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="1">
-        <v>10.0</v>
+      <c r="C45" s="3">
+        <v>496.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>45.0</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="1">
-        <v>10.0</v>
+      <c r="C46" s="3">
+        <v>521.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>46.0</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="1">
-        <v>10.0</v>
+      <c r="C47" s="3">
+        <v>545.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>47.0</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="1">
-        <v>10.0</v>
+      <c r="C48" s="3">
+        <v>575.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>48.0</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="1">
-        <v>10.0</v>
+      <c r="C49" s="3">
+        <v>606.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>49.0</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="1">
-        <v>10.0</v>
+      <c r="C50" s="3">
+        <v>636.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
         <v>50.0</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="1">
-        <v>50.0</v>
+      <c r="C51" s="3">
+        <v>1333.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
         <v>51.0</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="1">
-        <v>10.0</v>
+      <c r="C52" s="3">
+        <v>696.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
         <v>52.0</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="1">
-        <v>10.0</v>
+      <c r="C53" s="3">
+        <v>733.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
         <v>53.0</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="1">
-        <v>10.0</v>
+      <c r="C54" s="3">
+        <v>769.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
         <v>54.0</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="1">
-        <v>10.0</v>
+      <c r="C55" s="3">
+        <v>805.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>55.0</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="1">
-        <v>10.0</v>
+      <c r="C56" s="3">
+        <v>848.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>56.0</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="1">
-        <v>10.0</v>
+      <c r="C57" s="3">
+        <v>890.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
         <v>57.0</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="1">
-        <v>10.0</v>
+      <c r="C58" s="3">
+        <v>933.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
         <v>58.0</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="1">
-        <v>10.0</v>
+      <c r="C59" s="3">
+        <v>981.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
         <v>59.0</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="1">
-        <v>10.0</v>
+      <c r="C60" s="3">
+        <v>1030.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
         <v>60.0</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="1">
-        <v>50.0</v>
+      <c r="C61" s="3">
+        <v>2157.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
         <v>61.0</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="1">
-        <v>10.0</v>
+      <c r="C62" s="3">
+        <v>1133.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
         <v>62.0</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="1">
-        <v>10.0</v>
+      <c r="C63" s="3">
+        <v>1193.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
         <v>63.0</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="1">
-        <v>10.0</v>
+      <c r="C64" s="3">
+        <v>1248.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
         <v>64.0</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="1">
-        <v>10.0</v>
+      <c r="C65" s="3">
+        <v>1315.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
         <v>65.0</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="1">
-        <v>10.0</v>
+      <c r="C66" s="3">
+        <v>1381.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
         <v>66.0</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="1">
-        <v>10.0</v>
+      <c r="C67" s="3">
+        <v>1448.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
         <v>67.0</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="1">
-        <v>10.0</v>
+      <c r="C68" s="3">
+        <v>1521.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
         <v>68.0</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="1">
-        <v>10.0</v>
+      <c r="C69" s="3">
+        <v>1593.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
         <v>69.0</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="1">
-        <v>10.0</v>
+      <c r="C70" s="3">
+        <v>1672.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
         <v>70.0</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="1">
-        <v>50.0</v>
+      <c r="C71" s="3">
+        <v>3514.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
         <v>71.0</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="1">
-        <v>10.0</v>
+      <c r="C72" s="3">
+        <v>1848.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
         <v>72.0</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="1">
-        <v>10.0</v>
+      <c r="C73" s="3">
+        <v>1939.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
         <v>73.0</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="1">
-        <v>10.0</v>
+      <c r="C74" s="3">
+        <v>2036.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
         <v>74.0</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="1">
-        <v>10.0</v>
+      <c r="C75" s="3">
+        <v>2139.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
         <v>75.0</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="1">
-        <v>10.0</v>
+      <c r="C76" s="3">
+        <v>2242.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
         <v>76.0</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="1">
-        <v>10.0</v>
+      <c r="C77" s="3">
+        <v>2357.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
         <v>77.0</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="1">
-        <v>10.0</v>
+      <c r="C78" s="3">
+        <v>2472.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
         <v>78.0</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="1">
-        <v>10.0</v>
+      <c r="C79" s="3">
+        <v>2599.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
         <v>79.0</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="1">
-        <v>10.0</v>
+      <c r="C80" s="3">
+        <v>2727.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
         <v>80.0</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="1">
-        <v>50.0</v>
+      <c r="C81" s="3">
+        <v>5732.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
         <v>81.0</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="1">
-        <v>10.0</v>
+      <c r="C82" s="3">
+        <v>3005.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
         <v>82.0</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="1">
-        <v>10.0</v>
+      <c r="C83" s="3">
+        <v>3157.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
         <v>83.0</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="1">
-        <v>10.0</v>
+      <c r="C84" s="3">
+        <v>3314.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
         <v>84.0</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="1">
-        <v>10.0</v>
+      <c r="C85" s="3">
+        <v>3478.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
         <v>85.0</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="1">
-        <v>10.0</v>
+      <c r="C86" s="3">
+        <v>3654.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
         <v>86.0</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="1">
-        <v>10.0</v>
+      <c r="C87" s="3">
+        <v>3835.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
         <v>87.0</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="1">
-        <v>10.0</v>
+      <c r="C88" s="3">
+        <v>4029.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
         <v>88.0</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="1">
-        <v>10.0</v>
+      <c r="C89" s="3">
+        <v>4229.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
         <v>89.0</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="1">
-        <v>10.0</v>
+      <c r="C90" s="3">
+        <v>4441.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
         <v>90.0</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="1">
-        <v>50.0</v>
+      <c r="C91" s="3">
+        <v>9320.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
         <v>91.0</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="1">
-        <v>10.0</v>
+      <c r="C92" s="3">
+        <v>4896.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
         <v>92.0</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="1">
-        <v>10.0</v>
+      <c r="C93" s="3">
+        <v>5138.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
         <v>93.0</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="1">
-        <v>10.0</v>
+      <c r="C94" s="3">
+        <v>5399.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
         <v>94.0</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C95" s="1">
-        <v>10.0</v>
+      <c r="C95" s="3">
+        <v>5666.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
         <v>95.0</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="1">
-        <v>10.0</v>
+      <c r="C96" s="3">
+        <v>5950.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
         <v>96.0</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="1">
-        <v>10.0</v>
+      <c r="C97" s="3">
+        <v>6247.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
         <v>97.0</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="1">
-        <v>10.0</v>
+      <c r="C98" s="3">
+        <v>6556.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
         <v>98.0</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="1">
-        <v>10.0</v>
+      <c r="C99" s="3">
+        <v>6884.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
         <v>99.0</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="1">
-        <v>10.0</v>
+      <c r="C100" s="3">
+        <v>7229.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
         <v>100.0</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="1">
-        <v>50.0</v>
+      <c r="C101" s="3">
+        <v>15186.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
         <v>101.0</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="1">
-        <v>10.0</v>
+      <c r="C102" s="3">
+        <v>7974.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
         <v>102.0</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="1">
-        <v>10.0</v>
+      <c r="C103" s="3">
+        <v>8368.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
         <v>103.0</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="1">
-        <v>10.0</v>
+      <c r="C104" s="3">
+        <v>8787.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
         <v>104.0</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="1">
-        <v>10.0</v>
+      <c r="C105" s="3">
+        <v>9229.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
         <v>105.0</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="1">
-        <v>10.0</v>
+      <c r="C106" s="3">
+        <v>9689.0</v>
       </c>
     </row>
   </sheetData>
